--- a/ww-ug/GAPP_RESULTS_WRITE_UP/poverty_ent_flexBask.xlsx
+++ b/ww-ug/GAPP_RESULTS_WRITE_UP/poverty_ent_flexBask.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="poverty_ent_flexBask" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>geo</t>
   </si>
@@ -67,21 +67,21 @@
     <t>North/Center/South</t>
   </si>
   <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
     <t>TPI - 6 regions</t>
   </si>
   <si>
-    <t>central</t>
-  </si>
-  <si>
-    <t>eastern</t>
-  </si>
-  <si>
-    <t>northern</t>
-  </si>
-  <si>
-    <t>western</t>
-  </si>
-  <si>
     <t>Provinces</t>
   </si>
   <si>
@@ -118,19 +118,10 @@
     <t>Spatial domains</t>
   </si>
   <si>
-    <t>Central rural</t>
+    <t>central rural</t>
   </si>
   <si>
     <t>Central urban</t>
-  </si>
-  <si>
-    <t>Eastern</t>
-  </si>
-  <si>
-    <t>Northern</t>
-  </si>
-  <si>
-    <t>Western</t>
   </si>
 </sst>
 </file>
@@ -959,20 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1017,13 +999,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>13.62448</v>
+        <v>23.56495</v>
       </c>
       <c r="D2">
-        <v>3.7143160000000002</v>
+        <v>6.2510240000000001</v>
       </c>
       <c r="E2">
-        <v>1.5898099999999999</v>
+        <v>2.4138310000000001</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1042,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.6539950000000001</v>
+        <v>5.2306280000000003</v>
       </c>
       <c r="D4">
-        <v>0.54539530000000003</v>
+        <v>1.4537690000000001</v>
       </c>
       <c r="E4">
-        <v>0.15382299999999999</v>
+        <v>0.7292073</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -1062,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>15.147410000000001</v>
+        <v>26.36542</v>
       </c>
       <c r="D5">
-        <v>4.1983519999999999</v>
+        <v>6.9837790000000002</v>
       </c>
       <c r="E5">
-        <v>1.8091489999999999</v>
+        <v>2.6711490000000002</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -1087,16 +1069,16 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5.538748</v>
+        <v>14.15935</v>
       </c>
       <c r="D7">
-        <v>0.99204979999999998</v>
+        <v>3.9708670000000001</v>
       </c>
       <c r="E7">
-        <v>0.30120370000000002</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>1.5857760000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,16 +1089,16 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>12.01136</v>
+        <v>30.28041</v>
       </c>
       <c r="D8">
-        <v>2.4868760000000001</v>
+        <v>7.7507450000000002</v>
       </c>
       <c r="E8">
-        <v>0.73053889999999999</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
+        <v>2.8423630000000002</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1127,16 +1109,16 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>30.115480000000002</v>
+        <v>21.565909999999999</v>
       </c>
       <c r="D9">
-        <v>10.735379999999999</v>
+        <v>6.6111709999999997</v>
       </c>
       <c r="E9">
-        <v>5.3818840000000003</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
+        <v>2.7968660000000001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1147,16 +1129,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>10.196099999999999</v>
+        <v>25.67445</v>
       </c>
       <c r="D10">
-        <v>2.2607759999999999</v>
+        <v>6.2199439999999999</v>
       </c>
       <c r="E10">
-        <v>0.88998299999999997</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
+        <v>2.3491810000000002</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1166,82 +1148,82 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>5.538748</v>
+        <v>14.15935</v>
       </c>
       <c r="D12">
-        <v>0.99204979999999998</v>
+        <v>3.9708670000000001</v>
       </c>
       <c r="E12">
-        <v>0.30120370000000002</v>
+        <v>1.5857760000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>12.01136</v>
+        <v>30.28041</v>
       </c>
       <c r="D13">
-        <v>2.4868760000000001</v>
+        <v>7.7507450000000002</v>
       </c>
       <c r="E13">
-        <v>0.73053889999999999</v>
+        <v>2.8423630000000002</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>30.115480000000002</v>
+        <v>21.565909999999999</v>
       </c>
       <c r="D14">
-        <v>10.735379999999999</v>
+        <v>6.6111709999999997</v>
       </c>
       <c r="E14">
-        <v>5.3818840000000003</v>
+        <v>2.7968660000000001</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>10.196099999999999</v>
+        <v>25.67445</v>
       </c>
       <c r="D15">
-        <v>2.2607759999999999</v>
+        <v>6.2199439999999999</v>
       </c>
       <c r="E15">
-        <v>0.88998299999999997</v>
+        <v>2.3491810000000002</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1257,13 +1239,13 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>4.1670309999999997</v>
+        <v>2.0357249999999998</v>
       </c>
       <c r="D17">
-        <v>0.32309680000000002</v>
+        <v>0.48102640000000002</v>
       </c>
       <c r="E17">
-        <v>6.5960500000000005E-2</v>
+        <v>0.1326764</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -1277,13 +1259,13 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>4.6621269999999999</v>
+        <v>12.93952</v>
       </c>
       <c r="D18">
-        <v>0.93005349999999998</v>
+        <v>4.1126880000000003</v>
       </c>
       <c r="E18">
-        <v>0.29941630000000002</v>
+        <v>1.824268</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -1297,13 +1279,13 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>7.0179119999999999</v>
+        <v>20.536290000000001</v>
       </c>
       <c r="D19">
-        <v>1.3384670000000001</v>
+        <v>5.3008350000000002</v>
       </c>
       <c r="E19">
-        <v>0.40249400000000002</v>
+        <v>1.955479</v>
       </c>
       <c r="J19" t="s">
         <v>25</v>
@@ -1317,13 +1299,13 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>10.56659</v>
+        <v>27.434979999999999</v>
       </c>
       <c r="D20">
-        <v>1.96584</v>
+        <v>6.9974239999999996</v>
       </c>
       <c r="E20">
-        <v>0.6003096</v>
+        <v>2.5224959999999998</v>
       </c>
       <c r="J20" t="s">
         <v>26</v>
@@ -1337,13 +1319,13 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>13.19042</v>
+        <v>32.602539999999998</v>
       </c>
       <c r="D21">
-        <v>2.9120870000000001</v>
+        <v>8.3655209999999993</v>
       </c>
       <c r="E21">
-        <v>0.83681729999999999</v>
+        <v>3.1034009999999999</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
@@ -1357,13 +1339,13 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>21.667549999999999</v>
+        <v>13.99034</v>
       </c>
       <c r="D22">
-        <v>6.1733979999999997</v>
+        <v>4.0681710000000004</v>
       </c>
       <c r="E22">
-        <v>2.8180190000000001</v>
+        <v>1.768157</v>
       </c>
       <c r="J22" t="s">
         <v>28</v>
@@ -1377,13 +1359,13 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>75.750140000000002</v>
+        <v>60.384689999999999</v>
       </c>
       <c r="D23">
-        <v>36.99165</v>
+        <v>21.032139999999998</v>
       </c>
       <c r="E23">
-        <v>21.272790000000001</v>
+        <v>9.2366130000000002</v>
       </c>
       <c r="J23" t="s">
         <v>29</v>
@@ -1397,13 +1379,13 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>20.76953</v>
+        <v>14.19328</v>
       </c>
       <c r="D24">
-        <v>4.9153180000000001</v>
+        <v>3.4699939999999998</v>
       </c>
       <c r="E24">
-        <v>1.567089</v>
+        <v>1.23567</v>
       </c>
       <c r="J24" t="s">
         <v>30</v>
@@ -1417,13 +1399,13 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>13.823259999999999</v>
+        <v>29.47803</v>
       </c>
       <c r="D25">
-        <v>3.4018609999999998</v>
+        <v>7.5661139999999998</v>
       </c>
       <c r="E25">
-        <v>1.4331769999999999</v>
+        <v>3.0220699999999998</v>
       </c>
       <c r="J25" t="s">
         <v>31</v>
@@ -1437,13 +1419,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>6.351515</v>
+        <v>21.642869999999998</v>
       </c>
       <c r="D26">
-        <v>1.0512900000000001</v>
+        <v>4.7930780000000004</v>
       </c>
       <c r="E26">
-        <v>0.31422830000000002</v>
+        <v>1.6359570000000001</v>
       </c>
       <c r="J26" t="s">
         <v>32</v>
@@ -1462,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>6.6305709999999998</v>
+        <v>19.04241</v>
       </c>
       <c r="D28">
-        <v>1.310543</v>
+        <v>5.0572359999999996</v>
       </c>
       <c r="E28">
-        <v>0.4120105</v>
+        <v>1.855399</v>
       </c>
       <c r="K28" t="s">
         <v>34</v>
@@ -1482,13 +1464,13 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>3.3002760000000002</v>
+        <v>4.1480319999999997</v>
       </c>
       <c r="D29">
-        <v>0.33907090000000001</v>
+        <v>1.743579</v>
       </c>
       <c r="E29">
-        <v>7.4025900000000006E-2</v>
+        <v>1.0329900000000001</v>
       </c>
       <c r="K29" t="s">
         <v>35</v>
@@ -1502,16 +1484,16 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>12.01136</v>
+        <v>30.28041</v>
       </c>
       <c r="D30">
-        <v>2.4868760000000001</v>
+        <v>7.7507450000000002</v>
       </c>
       <c r="E30">
-        <v>0.73053889999999999</v>
+        <v>2.8423630000000002</v>
       </c>
       <c r="K30" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1522,16 +1504,16 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>30.115480000000002</v>
+        <v>21.565909999999999</v>
       </c>
       <c r="D31">
-        <v>10.735379999999999</v>
+        <v>6.6111709999999997</v>
       </c>
       <c r="E31">
-        <v>5.3818840000000003</v>
+        <v>2.7968660000000001</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1542,22 +1524,16 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>10.196099999999999</v>
+        <v>25.67445</v>
       </c>
       <c r="D32">
-        <v>2.2607759999999999</v>
+        <v>6.2199439999999999</v>
       </c>
       <c r="E32">
-        <v>0.88998299999999997</v>
+        <v>2.3491810000000002</v>
       </c>
       <c r="K32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f>AVERAGE(C28:C32)</f>
-        <v>12.450757400000001</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
